--- a/biology/Botanique/Eucalyptus_abdita/Eucalyptus_abdita.xlsx
+++ b/biology/Botanique/Eucalyptus_abdita/Eucalyptus_abdita.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eucalyptus abdita est une espèce d'eucalyptus, famille des Myrtaceae, originaire de la région entre Perth et Geraldton en Australie-Occidentale. Il forme des arbustes de 2 à 3 mètres de haut avec un tronc à écorce lisse. Les jeunes feuilles sont toujours pétiolées (contrairement à la plupart des eucalyptus) d'abord opposées à la base de la branche puis alternes, de forme ovale à triangulaire. Les feuilles adultes sont pétiolées, lancéolées et mesurent 5,5 à 8 cm de long et 1,1 à 1,8 cm de large. Les fleurs blanches sont regroupées en épis pouvant comporter 13 unités. Les fruits sont des cylindres de 5 mm de diamètre.
 Il doit son nom au latin « abdita », « caché ». En effet, une confusion a régné au départ entre cette espèce et Eucalyptus pluricaulis.
